--- a/biology/Neurosciences/Pierre_Buser/Pierre_Buser.xlsx
+++ b/biology/Neurosciences/Pierre_Buser/Pierre_Buser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Buser, né le 19 août 1921 à Strasbourg et mort le 29 décembre 2013 à Paris, est un chercheur en neurobiologie français, membre de l'Académie des Sciences (France) depuis 1988 et de l'Observatoire National de la Lecture.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études à l’École Normale Supérieure (promotion 1941)[1] et obtient l'agrégation de sciences naturelles en 1945.
-Il rejoint ensuite les équipes d'Alfred Fessard à l'institut Marey[2]
-Pierre Buser était professeur émérite à l’Université Pierre-et-Marie-Curie où il  a créé et dirigé l’institut des neurosciences[3]  du CNRS. Catherine Vidal a été son étudiante durant son doctorat.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études à l’École Normale Supérieure (promotion 1941) et obtient l'agrégation de sciences naturelles en 1945.
+Il rejoint ensuite les équipes d'Alfred Fessard à l'institut Marey
+Pierre Buser était professeur émérite à l’Université Pierre-et-Marie-Curie où il  a créé et dirigé l’institut des neurosciences  du CNRS. Catherine Vidal a été son étudiante durant son doctorat.
 </t>
         </is>
       </c>
@@ -546,15 +560,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Distinctions
-Prix Laborde de la Société de biologie (1955)
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix Laborde de la Société de biologie (1955)
 Prix Pourat de l'Académie des sciences (1958)
 Prix Bing de l'Académie suisse des sciences médicales (1961)
 Prix Leconte de l'Académie des sciences (1975)
-Prix international de la fondation Fyssen (1986)
-Décorations
- Officier de la Légion d'honneur[Quand ?]
-Commandeur de l’ordre national du Mérite[4]
+Prix international de la fondation Fyssen (1986)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierre_Buser</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Buser</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur[Quand ?]
+Commandeur de l’ordre national du Mérite
 Commandeur de l’ordre des palmes académiques</t>
         </is>
       </c>
